--- a/biology/Médecine/Nasion/Nasion.xlsx
+++ b/biology/Médecine/Nasion/Nasion.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nasion ou point nasal est le point craniométrique le plus antérieur de la suture fronto-nasale qui relie la partie nasale de l'os frontal et les os nasaux. Il est situé au point médian de la suture.
 Elle est visible sur le visage sous la forme d'une zone nettement déprimée entre les yeux, juste au-dessus de l'arête du nez.
